--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Chamodi\Machine_Learning\Pressure_history_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5379606_ad_unsw_edu_au/Documents/Documents/Machine Learning/Pressure_history_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7096C685-9E82-46DB-A440-1A148D807F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{7096C685-9E82-46DB-A440-1A148D807F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EACFB55A-2453-4193-A5D3-D1CB1D8508D3}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="28800" windowHeight="15450" xr2:uid="{EF8A1A04-2B38-4C68-986E-27A1DE10A8EF}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7270" xr2:uid="{EF8A1A04-2B38-4C68-986E-27A1DE10A8EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="7">
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Standoff distance</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,14 +408,2667 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25224AC-8C16-4A64-ADF8-4D785A1499A4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2.5</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>8.0498997122000002</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>49.254999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2.5</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>8.0597000196999993</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>48.824999999999989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2.5</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>8.1598004325999991</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>45.933999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2.5</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>8.2598999143</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>43.191000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2.5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>8.3398995921000001</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>41.099999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2.5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>8.4197996184000008</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>39.092000000000013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2.5</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>8.5000004618999991</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>37.155000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2.5</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>8.5997004062000002</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>34.849999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2.5</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>8.679999969899999</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>33.075999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2.5</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>8.7799001485000012</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>30.960000000000008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>2.5</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>8.8598001748000001</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>29.340000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>2.5</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>8.9498003944999986</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>27.587999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2.5</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>9.0397996828</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>25.908000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2.5</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>9.119800291999999</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>24.471999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>2.5</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>9.2297000811000007</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>22.584999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>2.5</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>9.3398001045000001</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>20.787999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>2.5</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>9.4298999756999997</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>19.382000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>2.5</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>9.5399003475999997</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>17.742000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2.5</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>9.6297003329000006</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>16.460999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2.5</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>9.7399000077999993</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>14.956999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2.5</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>9.8299002275000014</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>13.783000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>2.5</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>9.9497996270999991</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>12.287000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>2.5</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>10.049999692</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>11.096999999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>2.5</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>10.189999825999999</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>9.5130000000000052</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>2.5</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>10.250000283</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>8.8610000000000042</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>2.5</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>10.309999808999999</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>8.2369999999999948</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>2.5</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>10.429999791</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>7.019999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>2.5</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>10.499999858000001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>6.3310000000000031</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>2.5</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>10.549999774</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>5.8559999999999945</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>2.5</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>10.619999841</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>5.2139999999999986</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>2.5</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>10.689999908000001</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>4.5870000000000033</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>2.5</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>10.769999586000001</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>3.8900000000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>2.5</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>10.879999958000001</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>2.9719999999999942</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>2.5</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>11.020000093</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>1.8629999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>2.5</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>11.149999686000001</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>0.89199999999999591</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>2.5</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>11.269999668000001</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>4.3000000000006366E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>2.5</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>11.280000210000001</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>-2.5710938000003125E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>2.5</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>11.690000072</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>-2.6157890619999904</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>2.5</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>12.109999544999999</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>-4.8204999999999956</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>2.5</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>12.500000186000001</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>-6.5198984379999985</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>2.5</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>12.659999542</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>-7.1287109379999976</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>2.5</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>12.919999659</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>-8.0168984379999984</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>2.5</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>13.170000165999999</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>-8.7576015619999907</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>2.5</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>13.399999589</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>-9.3481015619999965</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>2.5</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>13.650000094999999</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>-9.8937109379999981</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>2.5</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>13.880000450000001</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>-10.310000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>2.5</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>14.109999873</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>-10.643898438000008</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>2.5</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>14.36999999</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>-10.921210938000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>2.5</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>14.600000344</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>-11.072999999999993</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>2.5</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>14.720000327000001</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>-11.114789062</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>2.5</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>14.820000156999999</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>-11.127289062000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>2.5</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>14.840000309000001</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>-10.899710937999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>2.5</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>14.860000461</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54">
+        <v>-0.11899999999999977</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>2.5</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>14.879999681999999</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>0.54800000000000182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>2.5</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>14.890000224</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>0.1629999999999967</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>2.5</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>14.899999835000001</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>0.42199999999999704</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>2.5</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>14.910000375999999</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58">
+        <v>0.23699999999999477</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>2.5</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>14.919999987000001</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59">
+        <v>0.30100000000000193</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>2.5</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>14.980000444</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60">
+        <v>8.5999999999998522E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>2.5</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>15.23999963</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <v>-0.65678906200000142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>2.5</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>15.580000356000001</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62">
+        <v>-1.5344999999999942</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>2.5</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>15.909999609000002</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63">
+        <v>-2.3211015619999955</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>2.5</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>16.230000182999998</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64">
+        <v>-3.031210938000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>2.5</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>16.519999132000002</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>-3.6248984380000024</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>2.5</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>16.790000722000002</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66">
+        <v>-4.1236015619999904</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>2.5</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>16.990000381999998</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <v>-4.4543984379999984</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>2.5</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>17.219999805</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <v>-4.7907890620000018</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>2.5</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <v>17.449999228000003</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69">
+        <v>-5.0778984380000054</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>2.5</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>17.659999429999999</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70">
+        <v>-5.2947109380000086</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>2.5</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>17.850000411</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71">
+        <v>-5.4501015620000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>2.5</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>18.060000613</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>-5.5732109380000026</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>2.5</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>18.239999190000002</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73">
+        <v>-5.6348984380000076</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>2.5</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>18.430000171</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74">
+        <v>-5.6537109380000032</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>2.5</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>18.549999222</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75">
+        <v>-5.6382109380000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>2.5</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>18.670000135999999</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76">
+        <v>-5.5987109380000106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>2.5</v>
+      </c>
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>18.769999966</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77">
+        <v>-5.5417109380000085</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>2.5</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>18.869999796000002</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78">
+        <v>-5.4553984380000031</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>2.5</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>19.029999152000002</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79">
+        <v>-5.2240000000000038</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>2.5</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>19.150000066</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80">
+        <v>-4.9237890619999973</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>2.5</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>19.179999828000003</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81">
+        <v>-4.1798984380000093</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>2.5</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>19.209999591000003</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82">
+        <v>-0.76428906200000313</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>2.5</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>19.230000674999999</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83">
+        <v>-0.99399999999999977</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>2.5</v>
+      </c>
+      <c r="B84">
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <v>19.239999354000002</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <v>-0.90078906200000119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>2.5</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>19.260000437000002</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85">
+        <v>-0.95328906199999608</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>2.5</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>19.269999117000001</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86">
+        <v>-0.93839843800000722</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>2.5</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>19.290000200000001</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <v>-0.96628906200000131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>2.5</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>19.370000809</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88">
+        <v>-1.0107109380000026</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>2.5</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>19.479999319000001</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89">
+        <v>-1.019999999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>2.5</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>19.589999690999999</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90">
+        <v>-0.97071093800001051</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>2.5</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>19.829999654999998</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91">
+        <v>-0.76871093799999812</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>2.5</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>20.199999212999998</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <v>-0.58628906199999165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>2.5</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93">
+        <v>20.460000262000001</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93">
+        <v>-0.50310156199999767</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>2.5</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>20.719999446999999</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94">
+        <v>-0.48260156199999926</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>2.5</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>20.899999887</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95">
+        <v>-0.50410156200000245</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>2.5</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>21.099999546999999</v>
+      </c>
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96">
+        <v>-0.55439843800000688</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>2.5</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>21.829999983</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97">
+        <v>-0.82200000000000273</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>2.5</v>
+      </c>
+      <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>22.110000252999999</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98">
+        <v>-0.90649999999999409</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>2.5</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>22.290000692</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99">
+        <v>-0.93639843799999767</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>2.5</v>
+      </c>
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>22.450000048</v>
+      </c>
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100">
+        <v>-0.92171093800000392</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>2.5</v>
+      </c>
+      <c r="B101">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>22.569999099</v>
+      </c>
+      <c r="D101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101">
+        <v>-0.8797890620000004</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>2.5</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>22.690000012999999</v>
+      </c>
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102">
+        <v>-0.80978906199999301</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>2.5</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>22.889999673000002</v>
+      </c>
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103">
+        <v>-0.64839843800000097</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>2.5</v>
+      </c>
+      <c r="B104">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>22.929999977000001</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104">
+        <v>-0.59228906199999187</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>2.5</v>
+      </c>
+      <c r="B105">
+        <v>5</v>
+      </c>
+      <c r="C105">
+        <v>22.959999740000001</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105">
+        <v>-0.44278906200000279</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>2.5</v>
+      </c>
+      <c r="B106">
+        <v>5</v>
+      </c>
+      <c r="C106">
+        <v>23.019999265999999</v>
+      </c>
+      <c r="D106" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106">
+        <v>0.30200000000000671</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>2.5</v>
+      </c>
+      <c r="B107">
+        <v>5</v>
+      </c>
+      <c r="C107">
+        <v>23.050000891</v>
+      </c>
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107">
+        <v>0.36499999999999488</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>2.5</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108">
+        <v>23.269999772000002</v>
+      </c>
+      <c r="D108" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108">
+        <v>0.33799999999999386</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>2.5</v>
+      </c>
+      <c r="B109">
+        <v>5</v>
+      </c>
+      <c r="C109">
+        <v>23.439999669999999</v>
+      </c>
+      <c r="D109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109">
+        <v>0.36400000000000432</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>2.5</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110">
+        <v>23.860000073999998</v>
+      </c>
+      <c r="D110" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110">
+        <v>0.58299999999999841</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>2.5</v>
+      </c>
+      <c r="B111">
+        <v>5</v>
+      </c>
+      <c r="C111">
+        <v>24.250000715000002</v>
+      </c>
+      <c r="D111" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111">
+        <v>0.757000000000005</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>2.5</v>
+      </c>
+      <c r="B112">
+        <v>5</v>
+      </c>
+      <c r="C112">
+        <v>24.490000679999998</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112">
+        <v>0.8469999999999942</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>2.5</v>
+      </c>
+      <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>24.760000408</v>
+      </c>
+      <c r="D113" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113">
+        <v>0.91500000000000625</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>2.5</v>
+      </c>
+      <c r="B114">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>24.960000067999999</v>
+      </c>
+      <c r="D114" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114">
+        <v>0.93899999999999295</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>2.5</v>
+      </c>
+      <c r="B115">
+        <v>5</v>
+      </c>
+      <c r="C115">
+        <v>25.229999796000001</v>
+      </c>
+      <c r="D115" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115">
+        <v>0.93999999999999773</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>2.5</v>
+      </c>
+      <c r="B116">
+        <v>5</v>
+      </c>
+      <c r="C116">
+        <v>25.529999285999999</v>
+      </c>
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116">
+        <v>0.90800000000000125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>2.5</v>
+      </c>
+      <c r="B117">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>26.119999588000002</v>
+      </c>
+      <c r="D117" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117">
+        <v>0.81499999999999773</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>2.5</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>26.610000059000001</v>
+      </c>
+      <c r="D118" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118">
+        <v>0.82099999999999795</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>2.5</v>
+      </c>
+      <c r="B119">
+        <v>5</v>
+      </c>
+      <c r="C119">
+        <v>26.660000905</v>
+      </c>
+      <c r="D119" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119">
+        <v>0.8539999999999992</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>2.5</v>
+      </c>
+      <c r="B120">
+        <v>5</v>
+      </c>
+      <c r="C120">
+        <v>26.750000193999998</v>
+      </c>
+      <c r="D120" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120">
+        <v>1.0240000000000009</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>2.5</v>
+      </c>
+      <c r="B121">
+        <v>5</v>
+      </c>
+      <c r="C121">
+        <v>26.839999482</v>
+      </c>
+      <c r="D121" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121">
+        <v>1.0750000000000028</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>2.5</v>
+      </c>
+      <c r="B122">
+        <v>5</v>
+      </c>
+      <c r="C122">
+        <v>27.300000190999999</v>
+      </c>
+      <c r="D122" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122">
+        <v>1.1029999999999944</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>2.5</v>
+      </c>
+      <c r="B123">
+        <v>5</v>
+      </c>
+      <c r="C123">
+        <v>27.930000797000002</v>
+      </c>
+      <c r="D123" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123">
+        <v>1.2000000000000028</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>2.5</v>
+      </c>
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>20.540000871</v>
+      </c>
+      <c r="D124" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124">
+        <v>0.52500000000000568</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>2.5</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>20.630000158999998</v>
+      </c>
+      <c r="D125" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125">
+        <v>0.50300000000000011</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>2.5</v>
+      </c>
+      <c r="B126">
+        <v>3</v>
+      </c>
+      <c r="C126">
+        <v>20.670000463999997</v>
+      </c>
+      <c r="D126" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126">
+        <v>0.54800000000000182</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>2.5</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <v>20.749999210000002</v>
+      </c>
+      <c r="D127" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127">
+        <v>0.84900000000000375</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>2.5</v>
+      </c>
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <v>20.789999515000002</v>
+      </c>
+      <c r="D128" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128">
+        <v>0.89900000000000091</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>2.5</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>20.850000903000002</v>
+      </c>
+      <c r="D129" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129">
+        <v>0.93699999999999761</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>2.5</v>
+      </c>
+      <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="C130">
+        <v>20.929999649999999</v>
+      </c>
+      <c r="D130" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130">
+        <v>0.95799999999999841</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>2.5</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>21.320000290999999</v>
+      </c>
+      <c r="D131" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131">
+        <v>0.98600000000000421</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>2.5</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+      <c r="C132">
+        <v>22.150000557000002</v>
+      </c>
+      <c r="D132" t="s">
+        <v>6</v>
+      </c>
+      <c r="E132">
+        <v>1.2009999999999934</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>2.5</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>14.870000072</v>
+      </c>
+      <c r="D133" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133">
+        <v>-0.75071093799999744</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>2.5</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>14.969999902</v>
+      </c>
+      <c r="D134" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134">
+        <v>-0.78199999999999648</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>2.5</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>15.139999799</v>
+      </c>
+      <c r="D135" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135">
+        <v>-0.78378906199999676</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>2.5</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>15.399999916999999</v>
+      </c>
+      <c r="D136" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136">
+        <v>-0.70521093800000756</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>2.5</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>15.449999832000001</v>
+      </c>
+      <c r="D137" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137">
+        <v>-0.71571093800000085</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>2.5</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>15.530000441</v>
+      </c>
+      <c r="D138" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138">
+        <v>-0.76749999999999829</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>2.5</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>15.560000204</v>
+      </c>
+      <c r="D139" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139">
+        <v>-0.67721093800000176</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>2.5</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>15.610000119</v>
+      </c>
+      <c r="D140" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140">
+        <v>-0.1167109379999971</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>2.5</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>15.669999643999999</v>
+      </c>
+      <c r="D141" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141">
+        <v>4.9999999999997158E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>2.5</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>15.739999712000001</v>
+      </c>
+      <c r="D142" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142">
+        <v>0.14799999999999613</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>2.5</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>15.830000862</v>
+      </c>
+      <c r="D143" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143">
+        <v>0.20199999999999818</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>2.5</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>16.079999506</v>
+      </c>
+      <c r="D144" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144">
+        <v>0.24699999999999989</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>2.5</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>16.209999098999997</v>
+      </c>
+      <c r="D145" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145">
+        <v>0.29800000000000182</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>2.5</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>16.559999435999998</v>
+      </c>
+      <c r="D146" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146">
+        <v>0.52400000000000091</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>2.5</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>17.340000718999999</v>
+      </c>
+      <c r="D147" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147">
+        <v>0.97299999999999898</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>2.5</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>17.589999363</v>
+      </c>
+      <c r="D148" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148">
+        <v>1.0849999999999937</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>2.5</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>17.759999260000001</v>
+      </c>
+      <c r="D149" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149">
+        <v>1.1400000000000006</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>2.5</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>18.109999596999998</v>
+      </c>
+      <c r="D150" t="s">
+        <v>6</v>
+      </c>
+      <c r="E150">
+        <v>1.203000000000003</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>2.5</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>18.389999866</v>
+      </c>
+      <c r="D151" t="s">
+        <v>6</v>
+      </c>
+      <c r="E151">
+        <v>1.1899999999999977</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>2.5</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>18.850000575000003</v>
+      </c>
+      <c r="D152" t="s">
+        <v>6</v>
+      </c>
+      <c r="E152">
+        <v>1.1020000000000039</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>2.5</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>19.160000606999997</v>
+      </c>
+      <c r="D153" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153">
+        <v>1.0829999999999984</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>2.5</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>19.290000200000001</v>
+      </c>
+      <c r="D154" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154">
+        <v>1.0150000000000006</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>2.5</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>19.360000268</v>
+      </c>
+      <c r="D155" t="s">
+        <v>6</v>
+      </c>
+      <c r="E155">
+        <v>1.1209999999999951</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>2.5</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>19.440000876999999</v>
+      </c>
+      <c r="D156" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156">
+        <v>1.1940000000000026</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>